--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2560566.177320854</v>
+        <v>2556260.460944783</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>117.3399053404217</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>65.64267297770718</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.10729826219391</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>229.642439747918</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.7638753524801</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>10.03156470826291</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>30.54110646053131</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>7.977851610899952</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>112.0672475313156</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>122.8479619296278</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>225.5650375952951</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>32.37373183919228</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>111.5512144998722</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>42.5313457611372</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.52682476229707</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>179.4878555873321</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>30.6510490328338</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>132.473663369464</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>21.69718571885169</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>1.255571502167365</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2811815126418742</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3322,10 +3322,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>164.8280908524515</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>112.1188594237458</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>41.69085152457905</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>24.8326660635311</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>990.5839652830418</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C2" t="n">
-        <v>990.5839652830418</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762914</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2103.418218878357</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1750.649563608243</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1377.183805347164</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y2" t="n">
-        <v>1377.183805347164</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,10 +4415,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>394.4025473335336</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C4" t="n">
-        <v>394.4025473335336</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D4" t="n">
-        <v>394.4025473335336</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511405</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610022</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9553738610022</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.737983561872</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1315.737983561872</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>957.4722849551219</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>957.4722849551219</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>950.5267842059185</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,7 +4570,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>428.8224802162921</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>428.8224802162921</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1319.932754200924</v>
+        <v>1718.744139049042</v>
       </c>
       <c r="C8" t="n">
-        <v>1319.932754200924</v>
+        <v>1349.78162210863</v>
       </c>
       <c r="D8" t="n">
-        <v>1319.932754200924</v>
+        <v>991.51592350188</v>
       </c>
       <c r="E8" t="n">
-        <v>1319.932754200924</v>
+        <v>605.7276709036357</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>194.7417661140282</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>181.6943883908597</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4807,22 +4807,22 @@
         <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>535.0521211835593</v>
       </c>
       <c r="M8" t="n">
-        <v>1663.175414063304</v>
+        <v>1166.769932166871</v>
       </c>
       <c r="N8" t="n">
-        <v>1857.509626955287</v>
+        <v>1794.077600226718</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657333</v>
+        <v>2341.238804993795</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.93405351505</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="V8" t="n">
-        <v>2209.87116617148</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.87116617148</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="X8" t="n">
-        <v>2096.671926240858</v>
+        <v>2108.883471024854</v>
       </c>
       <c r="Y8" t="n">
-        <v>1706.532594265046</v>
+        <v>1718.744139049042</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>376.7751545415201</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>514.004752557214</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1154.550102024319</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>1726.935017112062</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2276.371025864785</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>618.4478276340972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>618.4478276340972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>468.3311882217614</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>320.4180946393683</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>320.4180946393683</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4989,25 +4989,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>846.4373785321145</v>
+        <v>826.0341909612292</v>
       </c>
       <c r="V10" t="n">
-        <v>846.4373785321145</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>846.4373785321145</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>618.4478276340972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>618.4478276340972</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,19 +5053,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>733.4550657171301</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>583.3384263047943</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>435.4253327224012</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>435.4253327224012</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>268.2292334372812</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>126.5174022794792</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,22 +5296,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,19 +5527,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,10 +5551,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5600,16 +5600,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>3060.83890577277</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3658.217393399322</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>4138.923422159307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.686454602137</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>266.4891497944948</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.405126015258</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.415575117241</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>486.4214942667319</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>339.5315467688215</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6457,34 +6457,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6542,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1652.717886400351</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6605733532803</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7243904253734</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U31" t="n">
-        <v>1976.192826467915</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V31" t="n">
-        <v>1721.508338262028</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W31" t="n">
-        <v>1432.091168225067</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X31" t="n">
-        <v>1204.10161732705</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.30903818352</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2567.280686761779</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>3062.606292977538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>3659.984780604089</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>3659.984780604089</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>4211.894510843376</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>4635.517660338444</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.679061850319</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2263.824227505223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.222762528164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7019,22 +7019,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.665004989558</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1878.013763195024</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1623.329274989137</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1333.912104952176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,7 +7192,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>2383.002557118213</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>2878.328163333972</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>3475.706650960524</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>4103.30461451513</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>4457.571492023711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P39" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1031.03282245656</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1031.03282245656</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>2517.442480416598</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.8431516380886</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>741.8431516380886</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>591.7265122257528</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908939</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876693</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>580.8993044876693</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>432.9862109052762</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>286.0962634073658</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>118.9001641222457</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8224,7 +8224,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8455,25 +8455,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>240.3869484383495</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>207.2437094798856</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,25 +8534,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8023768260592</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569017</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>48.89210447937325</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>114.158440889165</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>138.4949402405074</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.0578285897977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>72.64978773649594</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>114.7699989900974</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>86.11098998263083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>143.8269525734171</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>284.9289028870768</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.09406519747981</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>121.3563835367927</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>113.5907959652914</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>104.7431111219901</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>115.4620467826928</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791847.4864178547</v>
+        <v>791847.4864178548</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="E2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,37 +26423,37 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682693</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682704</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682721</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="M4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="M4" t="n">
-        <v>5677.536566682713</v>
-      </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682744</v>
@@ -26524,46 +26524,46 @@
         <v>-246442.0010961675</v>
       </c>
       <c r="C6" t="n">
-        <v>343525.8781183769</v>
+        <v>343525.8781183772</v>
       </c>
       <c r="D6" t="n">
-        <v>187722.0720245822</v>
+        <v>187722.0720245825</v>
       </c>
       <c r="E6" t="n">
-        <v>-252314.1430116413</v>
+        <v>-252661.5222659984</v>
       </c>
       <c r="F6" t="n">
-        <v>518738.5483691651</v>
+        <v>518391.1691148079</v>
       </c>
       <c r="G6" t="n">
-        <v>518738.548369165</v>
+        <v>518391.169114808</v>
       </c>
       <c r="H6" t="n">
-        <v>518738.5483691652</v>
+        <v>518391.169114808</v>
       </c>
       <c r="I6" t="n">
-        <v>518738.5483691651</v>
+        <v>518391.169114808</v>
       </c>
       <c r="J6" t="n">
-        <v>342315.329176572</v>
+        <v>341967.949922215</v>
       </c>
       <c r="K6" t="n">
-        <v>518738.548369165</v>
+        <v>518391.1691148079</v>
       </c>
       <c r="L6" t="n">
-        <v>518738.548369165</v>
+        <v>518391.169114808</v>
       </c>
       <c r="M6" t="n">
-        <v>394530.0376611065</v>
+        <v>394182.6584067493</v>
       </c>
       <c r="N6" t="n">
-        <v>518738.548369165</v>
+        <v>518391.169114808</v>
       </c>
       <c r="O6" t="n">
-        <v>518738.5483691649</v>
+        <v>518391.169114808</v>
       </c>
       <c r="P6" t="n">
-        <v>518738.5483691649</v>
+        <v>518391.1691148079</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26798,19 +26798,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>264.59046473184</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>262.1095854924278</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.7246819197434</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>56.63943449405969</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>2.020294668314932</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,16 +27779,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>242.1060786155651</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>188.0435468915635</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.0630324643156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>257.6638531471534</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>44.07281462494261</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>60.69561706280186</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.329515364835578e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>237.3557891543625</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>616.9033572954392</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>163.5723821283055</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O30" t="n">
-        <v>388.514013929771</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>195.8560084902126</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33739,25 +33739,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>491.597732526532</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>500.4415752611932</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>169.9530009943068</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35175,25 +35175,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>381.1229644396154</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>379.1316138404507</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>326.0931037587431</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>340.5859315097288</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>94.75954470991805</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>376.3054212373396</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>485.5616452121058</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O30" t="n">
-        <v>245.9177694853266</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>55.87423440419106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>349.0014880820875</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>357.8453308167487</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>35.9785935799765</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2556260.460944783</v>
+        <v>2558020.991247568</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>117.3399053404217</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>148.3902336977362</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>68.16471659739302</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>229.642439747918</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.5933316365559</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>325.2557485598865</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>17.6853277387067</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.54110646053131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>61.32905684098937</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>7.977851610899952</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>225.5650375952951</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>130.2353589709477</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703221</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>111.5512144998722</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656052</v>
       </c>
     </row>
     <row r="15">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>111.5512144998717</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>30.6510490328338</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>1.799772605716619</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>87.71169339385442</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1154.883827626212</v>
+        <v>768.2839875620907</v>
       </c>
       <c r="C2" t="n">
-        <v>1154.883827626212</v>
+        <v>768.2839875620907</v>
       </c>
       <c r="D2" t="n">
-        <v>1154.883827626212</v>
+        <v>768.2839875620907</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>768.2839875620907</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>357.2980827724832</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4400,25 +4400,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.0202652891861</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C4" t="n">
-        <v>348.0202652891861</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0202652891861</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>659.2757351181587</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>659.2757351181587</v>
       </c>
       <c r="U4" t="n">
-        <v>348.0202652891861</v>
+        <v>659.2757351181587</v>
       </c>
       <c r="V4" t="n">
-        <v>348.0202652891861</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="W4" t="n">
-        <v>348.0202652891861</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="X4" t="n">
-        <v>348.0202652891861</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.0202652891861</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>2118.033502821228</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1727.894170845416</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1718.744139049042</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>1349.78162210863</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>991.51592350188</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E8" t="n">
-        <v>605.7276709036357</v>
+        <v>73.93586029273641</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7417661140282</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>181.6943883908597</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>157.7403863883401</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>535.0521211835593</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1166.769932166871</v>
+        <v>1830.581063083657</v>
       </c>
       <c r="N8" t="n">
-        <v>1794.077600226718</v>
+        <v>2171.069779676835</v>
       </c>
       <c r="O8" t="n">
         <v>2341.238804993795</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2482.349229285934</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2482.349229285934</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2108.883471024854</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1718.744139049042</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4889,16 +4889,16 @@
         <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>520.6009841418684</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1161.146333608973</v>
       </c>
       <c r="N9" t="n">
-        <v>1726.935017112062</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>2276.371025864785</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
         <v>2613.551098059417</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>826.0341909612292</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>922.3267956322873</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,28 +5764,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171305</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>564.5188827892237</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>414.4022433768879</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>266.4891497944948</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487568</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588918</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473703</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,7 +6457,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192548</v>
@@ -6466,25 +6466,25 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>559.3040775751642</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>411.3909839927711</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>264.5010364948607</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>264.5010364948607</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2243.991523718104</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.390058741045</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6779,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6837,22 +6837,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,19 +7019,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>409.1360811687896</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>904.4616873845483</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7077,16 +7077,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,7 +7192,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7414,7 +7414,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7596,10 +7596,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
         <v>1746.193029533436</v>
@@ -7639,10 +7639,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8224,7 +8224,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>240.3869484383495</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>147.6308118193897</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8537,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>283.1760056204237</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>230.7984289569017</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.2291039219467</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>114.158440889165</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>114.1584408891654</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4949402405072</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>52.58301945236947</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791847.4864178548</v>
+        <v>791847.4864178546</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>791847.4864178547</v>
+        <v>791847.4864178548</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>791847.4864178547</v>
+        <v>791847.4864178546</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791847.4864178548</v>
+        <v>791847.4864178547</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448197</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448197</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448199</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448199</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448202</v>
-      </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="K2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>625538.6147597546</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808066</v>
+        <v>771052.6913808063</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682693</v>
+        <v>5677.536566682817</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682704</v>
+        <v>5677.536566682809</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246442.0010961675</v>
+        <v>-246442.0010961676</v>
       </c>
       <c r="C6" t="n">
-        <v>343525.8781183772</v>
+        <v>343525.8781183769</v>
       </c>
       <c r="D6" t="n">
-        <v>187722.0720245825</v>
+        <v>187722.0720245821</v>
       </c>
       <c r="E6" t="n">
-        <v>-252661.5222659984</v>
+        <v>-252348.8809370771</v>
       </c>
       <c r="F6" t="n">
-        <v>518391.1691148079</v>
+        <v>518703.8104437292</v>
       </c>
       <c r="G6" t="n">
-        <v>518391.169114808</v>
+        <v>518703.8104437295</v>
       </c>
       <c r="H6" t="n">
-        <v>518391.169114808</v>
+        <v>518703.8104437293</v>
       </c>
       <c r="I6" t="n">
-        <v>518391.169114808</v>
+        <v>518703.8104437295</v>
       </c>
       <c r="J6" t="n">
-        <v>341967.949922215</v>
+        <v>342280.5912511364</v>
       </c>
       <c r="K6" t="n">
-        <v>518391.1691148079</v>
+        <v>518703.8104437293</v>
       </c>
       <c r="L6" t="n">
-        <v>518391.169114808</v>
+        <v>518703.810443729</v>
       </c>
       <c r="M6" t="n">
-        <v>394182.6584067493</v>
+        <v>394495.2997356709</v>
       </c>
       <c r="N6" t="n">
-        <v>518391.169114808</v>
+        <v>518703.8104437292</v>
       </c>
       <c r="O6" t="n">
-        <v>518391.169114808</v>
+        <v>518703.810443729</v>
       </c>
       <c r="P6" t="n">
-        <v>518391.1691148079</v>
+        <v>518703.8104437293</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26798,19 +26798,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>264.59046473184</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>265.3939363230587</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27584,19 +27584,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>143.9808223526259</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>56.63943449405969</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>12.85498872110193</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>149.6244745203442</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>188.0435468915635</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>320.6013132312724</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>307.0630324643156</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28067,19 +28067,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>60.69561706280186</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>95.47429641808947</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.575699570821598e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N30" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33499,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>595.327537312171</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33666,7 +33666,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33739,7 +33739,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>456.3459017226598</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>381.1229644396154</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>343.9279965587659</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>111.8528537874005</v>
@@ -35257,19 +35257,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>483.8393810271557</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>340.5859315097288</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>22.96660727472423</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066202</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243153</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902408</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9858252288377</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>318.5044627483008</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
